--- a/main/data/merge_two_lists.xlsx
+++ b/main/data/merge_two_lists.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.01485633850098</v>
+        <v>18.48292350769043</v>
       </c>
       <c r="D2" t="n">
-        <v>808</v>
+        <v>190</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.55573463439941</v>
+        <v>17.84515380859375</v>
       </c>
       <c r="D3" t="n">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.70474624633789</v>
+        <v>17.67802238464355</v>
       </c>
       <c r="D4" t="n">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.48993110656738</v>
+        <v>16.99686050415039</v>
       </c>
       <c r="D5" t="n">
-        <v>808</v>
+        <v>193</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.41196823120117</v>
+        <v>16.57605171203613</v>
       </c>
       <c r="D6" t="n">
-        <v>424</v>
+        <v>182</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>

--- a/main/data/merge_two_lists.xlsx
+++ b/main/data/merge_two_lists.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage (mb)</t>
+          <t>Memory Usage (bytes)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18.48292350769043</v>
+        <v>17.84706115722656</v>
       </c>
       <c r="D2" t="n">
         <v>190</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17.84515380859375</v>
+        <v>17.25196838378906</v>
       </c>
       <c r="D3" t="n">
         <v>174</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.67802238464355</v>
+        <v>17.44198799133301</v>
       </c>
       <c r="D4" t="n">
         <v>175</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.99686050415039</v>
+        <v>20.07317543029785</v>
       </c>
       <c r="D5" t="n">
         <v>193</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.57605171203613</v>
+        <v>17.85826683044434</v>
       </c>
       <c r="D6" t="n">
         <v>182</v>

--- a/main/data/merge_two_lists.xlsx
+++ b/main/data/merge_two_lists.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.84706115722656</v>
+        <v>19.33073997497559</v>
       </c>
       <c r="D2" t="n">
         <v>190</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17.25196838378906</v>
+        <v>17.8382396697998</v>
       </c>
       <c r="D3" t="n">
         <v>174</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.44198799133301</v>
+        <v>17.62199401855469</v>
       </c>
       <c r="D4" t="n">
         <v>175</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.07317543029785</v>
+        <v>17.51208305358887</v>
       </c>
       <c r="D5" t="n">
         <v>193</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17.85826683044434</v>
+        <v>18.20683479309082</v>
       </c>
       <c r="D6" t="n">
         <v>182</v>
